--- a/biology/Zoologie/Adelotus_brevis/Adelotus_brevis.xlsx
+++ b/biology/Zoologie/Adelotus_brevis/Adelotus_brevis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelotus brevis, unique représentant du genre Adelotus, est une espèce d'amphibiens de la famille des Limnodynastidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelotus brevis, unique représentant du genre Adelotus, est une espèce d'amphibiens de la famille des Limnodynastidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en dessous de 400 m d'altitude le long de la côte Est du centre de l'État du Queensland jusqu'au Sud de la Nouvelle-Galles du Sud[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en dessous de 400 m d'altitude le long de la côte Est du centre de l'État du Queensland jusqu'au Sud de la Nouvelle-Galles du Sud,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les mâles qui mesurent environ 50 mm sont plus grands que les femelles qui mesurent environ 40 mm[3].
+Les mâles qui mesurent environ 50 mm sont plus grands que les femelles qui mesurent environ 40 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelotus Ogilby, 1907 est le nouveau nom de Cryptotis Günther, 1863 qui était déjà attribué par Pomel, 1848 (Mammalia).
 </t>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1863 : On new species of batrachians from Australia. Annals and Magazine of Natural History, sér. 3, vol. 11, p. 26-28 (texte intégral).
 Ogilby, 1907 : A new tree frog from Brisbane. Proceedings of the Royal Society of Queensland, vol. 20, p. 31-32 (texte intégral).</t>
